--- a/biology/Zoologie/Eotitanops/Eotitanops.xlsx
+++ b/biology/Zoologie/Eotitanops/Eotitanops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eotitanops est un genre fossile de périssodactyles rattaché à la famille des Brontotheriidae. 
 C'est le genre le plus primitif de la famille des Brontotheriidae.
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peuplait les sous-bois des forêts d'Asie où il apparut à l'Éocène inférieur et d'Amérique du Nord qu'il colonisa à l'Éocène moyen bénéficiant du réchauffement climatique de l'Optimum climatique de l'Éocène[1]. Il mesurait 45 cm au garrot. Il disparut des deux continents à la même époque[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peuplait les sous-bois des forêts d'Asie où il apparut à l'Éocène inférieur et d'Amérique du Nord qu'il colonisa à l'Éocène moyen bénéficiant du réchauffement climatique de l'Optimum climatique de l'Éocène. Il mesurait 45 cm au garrot. Il disparut des deux continents à la même époque.
 Très semblable à Hyracotherium, il possédait tout comme lui quatre doigts aux pattes antérieures et trois doigts aux pattes postérieures. La plupart des scientifiques s'accordent à considérer que Eotitanops a donné naissance aux bronthothères dont la taille fut nettement supérieure, tandis que Hyracotherium aurait été à l'origine des chevaux.
 </t>
         </is>
